--- a/UploadDataToDatabase/Resources/MQC_Daily.xlsx
+++ b/UploadDataToDatabase/Resources/MQC_Daily.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AN\Project\github_clone\Techlink-TLMS\WindowsFormsApplication1\UploadDataToDatabase\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AN\Project\TechLink_master\WindowsFormsApplication1\UploadDataToDatabase\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B62FBB-61A8-4F5B-875E-0618B7AA6D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EA93BE-0AC3-417B-9C7A-33382B190010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>大管十月19不良情况改善</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>标准投料G/pcs</t>
-  </si>
-  <si>
-    <t>Line</t>
   </si>
 </sst>
 </file>
@@ -492,7 +489,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -646,6 +643,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -653,81 +716,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -755,13 +743,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -816,13 +804,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -1144,143 +1132,140 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:BD53"/>
+  <dimension ref="A1:BC53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="13" style="69" customWidth="1"/>
-    <col min="2" max="2" width="46.59765625" style="67" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.19921875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="6.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" style="1" customWidth="1"/>
-    <col min="10" max="17" width="11.69921875" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.19921875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.3984375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6" style="1" customWidth="1"/>
-    <col min="23" max="23" width="5.3984375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="5.59765625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.69921875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="7.09765625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.3984375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5" style="1" customWidth="1"/>
-    <col min="30" max="30" width="6.8984375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="6.59765625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="9" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.59765625" style="1" customWidth="1"/>
-    <col min="34" max="35" width="5.59765625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="6.69921875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="5.3984375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="5.59765625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="6.69921875" style="1" customWidth="1"/>
-    <col min="40" max="43" width="5.3984375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="9" style="1"/>
-    <col min="45" max="45" width="11.5" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.69921875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="12" style="1" customWidth="1"/>
-    <col min="49" max="51" width="11.5" style="1" customWidth="1"/>
-    <col min="52" max="52" width="9" style="1" customWidth="1"/>
-    <col min="53" max="53" width="9" style="1"/>
-    <col min="54" max="54" width="20.59765625" style="1" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="9.69921875" style="1" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="15" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="46.59765625" style="89" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" style="1" customWidth="1"/>
+    <col min="9" max="16" width="11.69921875" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.19921875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5.3984375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.3984375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.59765625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.69921875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.09765625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.3984375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="6.8984375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="6.59765625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12.59765625" style="1" customWidth="1"/>
+    <col min="33" max="34" width="5.59765625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="6.69921875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="5.3984375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="5.59765625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="6.69921875" style="1" customWidth="1"/>
+    <col min="39" max="42" width="5.3984375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="9" style="1"/>
+    <col min="44" max="44" width="11.5" style="1" customWidth="1"/>
+    <col min="45" max="45" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.69921875" style="1" customWidth="1"/>
+    <col min="47" max="47" width="12" style="1" customWidth="1"/>
+    <col min="48" max="50" width="11.5" style="1" customWidth="1"/>
+    <col min="51" max="51" width="9" style="1" customWidth="1"/>
+    <col min="52" max="52" width="9" style="1"/>
+    <col min="53" max="53" width="20.59765625" style="1" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="9.69921875" style="1" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="15" style="1" customWidth="1"/>
+    <col min="56" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="39.75" customHeight="1">
-      <c r="B1" s="65"/>
-      <c r="C1" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="87"/>
+    <row r="1" spans="1:55" ht="39.75" customHeight="1">
+      <c r="A1" s="87"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="81"/>
     </row>
-    <row r="2" spans="1:56" ht="24.75" customHeight="1">
-      <c r="A2" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="74" t="s">
+    <row r="2" spans="1:55" ht="24.75" customHeight="1">
+      <c r="A2" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="B2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="D2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="E2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="F2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="G2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="H2" s="82" t="s">
         <v>4</v>
       </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1288,226 +1273,224 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="92" t="s">
+      <c r="Q2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="74" t="s">
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="81" t="s">
+      <c r="AF2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="92" t="s">
+      <c r="AG2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="92"/>
-      <c r="AR2" s="74" t="s">
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="AS2" s="81" t="s">
+      <c r="AR2" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="AT2" s="74" t="s">
+      <c r="AS2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="AU2" s="75" t="s">
+      <c r="AT2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="AV2" s="75" t="s">
+      <c r="AU2" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="AW2" s="77" t="s">
+      <c r="AV2" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="BB2" s="75" t="s">
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="BA2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="BC2" s="75" t="s">
+      <c r="BB2" s="68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="177.6" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="3" t="s">
+    <row r="3" spans="1:55" ht="177.6" customHeight="1">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="Q3" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="R3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI3" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD3" s="62" t="s">
+      <c r="AO3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AP3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ3" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="76"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="BA3" s="69"/>
+      <c r="BB3" s="69"/>
     </row>
-    <row r="4" spans="1:56" ht="39" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="64"/>
+    <row r="4" spans="1:55" ht="39" customHeight="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <f>E4*11*60/25</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <f>+H4+AF4+AR4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9" t="e">
-        <f>G4/F4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <f t="shared" ref="L4:L35" si="0">+K4*G4/1000</f>
-        <v>0</v>
-      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <f>D4*11*60/25</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f>+G4+AE4+AQ4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9" t="e">
+        <f>F4/E4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" ref="K4:K35" si="0">+J4*F4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14" t="e">
-        <f>L4/(L4-P4)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="e">
+        <f>K4/(K4-O4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -1521,15 +1504,15 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="6">
-        <f t="shared" ref="AF4:AF33" si="1">SUM(R4:AE4)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="15" t="e">
-        <f>AF4/G4</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AE4" s="6">
+        <f t="shared" ref="AE4:AE33" si="1">SUM(Q4:AD4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="15" t="e">
+        <f>AE4/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
@@ -1539,69 +1522,68 @@
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="6">
-        <f t="shared" ref="AR4:AR28" si="2">SUM(AH4:AQ4)</f>
-        <v>0</v>
+      <c r="AQ4" s="6">
+        <f t="shared" ref="AQ4:AQ28" si="2">SUM(AG4:AP4)</f>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="15" t="e">
+        <f t="shared" ref="AR4:AR36" si="3">AQ4/F4</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AS4" s="15" t="e">
-        <f t="shared" ref="AS4:AS36" si="3">AR4/G4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT4" s="15" t="e">
-        <f t="shared" ref="AT4:AT36" si="4">(AR4+AF4)/G4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="16" t="e">
-        <f>AU4/G4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW4" s="83"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="85"/>
+        <f t="shared" ref="AS4:AS36" si="4">(AQ4+AE4)/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="16" t="e">
+        <f>AT4/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV4" s="75"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="77"/>
+      <c r="BA4" s="7"/>
       <c r="BB4" s="7"/>
-      <c r="BC4" s="7"/>
     </row>
-    <row r="5" spans="1:56" ht="39" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="64"/>
+    <row r="5" spans="1:55" ht="39" customHeight="1">
+      <c r="A5" s="64"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <f>E5*11*60/25</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <f>+H5+AF5+AR5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="9" t="e">
-        <f t="shared" ref="I5:I36" si="5">G5/F5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <f>D5*11*60/25</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f>+G5+AE5+AQ5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="9" t="e">
+        <f t="shared" ref="H5:H36" si="5">F5/E5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="14" t="e">
-        <f>L5/(L5-P5)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14" t="e">
+        <f>K5/(K5-O5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -1615,15 +1597,15 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="6">
+      <c r="AE5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="15" t="e">
-        <f t="shared" ref="AG5:AG36" si="6">AF5/G5</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AF5" s="15" t="e">
+        <f t="shared" ref="AF5:AF36" si="6">AE5/F5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
@@ -1633,69 +1615,68 @@
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="6">
+      <c r="AQ5" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR5" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS5" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT5" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="16" t="e">
-        <f>AU5/G5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW5" s="83"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="85"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="16" t="e">
+        <f>AT5/F5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="77"/>
+      <c r="BA5" s="17"/>
       <c r="BB5" s="17"/>
-      <c r="BC5" s="17"/>
     </row>
-    <row r="6" spans="1:56" ht="39" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:55" ht="39" customHeight="1">
+      <c r="A6" s="64"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <f>E6*11*60/25</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <f>+H6+AF6+AR6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="9" t="e">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <f>D6*11*60/25</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f>+G6+AE6+AQ6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="10">
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
         <v>0</v>
       </c>
       <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="14" t="e">
-        <f>L6/(L6-P6)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14" t="e">
+        <f>K6/(K6-O6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -1709,15 +1690,15 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="6">
+      <c r="AE6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="15" t="e">
+      <c r="AF6" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
@@ -1727,69 +1708,68 @@
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="6">
+      <c r="AQ6" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR6" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS6" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT6" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="16" t="e">
-        <f>AU6/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW6" s="83"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="16" t="e">
+        <f>AT6/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV6" s="75"/>
+      <c r="AW6" s="76"/>
+      <c r="AX6" s="76"/>
+      <c r="BA6" s="17"/>
       <c r="BB6" s="17"/>
-      <c r="BC6" s="17"/>
     </row>
-    <row r="7" spans="1:56" ht="37.5" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="64"/>
+    <row r="7" spans="1:55" ht="37.5" customHeight="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="19">
-        <f>E7*11*60/18.9</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" ref="G7:G35" si="7">H7+AF7+AR7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9" t="e">
+      <c r="D7" s="6"/>
+      <c r="E7" s="19">
+        <f>D7*11*60/18.9</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" ref="F7:F35" si="7">G7+AE7+AQ7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="10">
+      <c r="I7" s="10">
         <v>440</v>
       </c>
+      <c r="J7" s="11">
+        <v>435</v>
+      </c>
       <c r="K7" s="11">
-        <v>435</v>
-      </c>
-      <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="14" t="e">
-        <f>L7/(L7-P7)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14" t="e">
+        <f>K7/(K7-O7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -1803,15 +1783,15 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="6">
+      <c r="AE7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="15" t="e">
+      <c r="AF7" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
@@ -1821,72 +1801,71 @@
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="6">
+      <c r="AQ7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR7" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS7" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT7" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="20" t="e">
-        <f t="shared" ref="AV7:AV36" si="8">AU7/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW7" s="83"/>
-      <c r="AX7" s="84"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="22"/>
-      <c r="BB7" s="23"/>
-      <c r="BC7" s="24"/>
-      <c r="BD7" s="25"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="20" t="e">
+        <f t="shared" ref="AU7:AU36" si="8">AT7/F7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="76"/>
+      <c r="AX7" s="76"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="24"/>
+      <c r="BC7" s="25"/>
     </row>
-    <row r="8" spans="1:56" ht="37.5" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:55" ht="37.5" customHeight="1">
+      <c r="A8" s="64"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="19">
-        <f>E8*11*60/18.9</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="D8" s="6"/>
+      <c r="E8" s="19">
+        <f>D8*11*60/18.9</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9" t="e">
+      <c r="G8" s="7"/>
+      <c r="H8" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14" t="e">
-        <f t="shared" ref="Q8:Q35" si="9">L8/(L8-P8)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14" t="e">
+        <f t="shared" ref="P8:P35" si="9">K8/(K8-O8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -1900,15 +1879,15 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="6">
+      <c r="AE8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="15" t="e">
+      <c r="AF8" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
@@ -1918,70 +1897,69 @@
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="6">
+      <c r="AQ8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR8" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS8" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT8" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="20" t="e">
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW8" s="83"/>
-      <c r="AX8" s="84"/>
-      <c r="AY8" s="84"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="22"/>
-      <c r="BB8" s="23"/>
-      <c r="BC8" s="24"/>
-      <c r="BD8" s="25"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="76"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="22"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="24"/>
+      <c r="BC8" s="25"/>
     </row>
-    <row r="9" spans="1:56" ht="37.5" customHeight="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="64"/>
+    <row r="9" spans="1:55" ht="37.5" customHeight="1">
+      <c r="A9" s="64"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="19">
-        <f>E9*11*60/18.9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="D9" s="6"/>
+      <c r="E9" s="19">
+        <f>D9*11*60/18.9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9" t="e">
+      <c r="G9" s="7"/>
+      <c r="H9" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="10">
+      <c r="I9" s="10">
         <v>83</v>
       </c>
+      <c r="J9" s="11">
+        <v>116</v>
+      </c>
       <c r="K9" s="11">
-        <v>116</v>
-      </c>
-      <c r="L9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14" t="e">
-        <f>L9/(L9-P9)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14" t="e">
+        <f>K9/(K9-O9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -1995,15 +1973,15 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="6">
+      <c r="AE9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="15" t="e">
+      <c r="AF9" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
@@ -2013,70 +1991,69 @@
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="6">
+      <c r="AQ9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR9" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS9" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT9" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="20" t="e">
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="84"/>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="23"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="25"/>
+      <c r="AV9" s="75"/>
+      <c r="AW9" s="76"/>
+      <c r="AX9" s="76"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="25"/>
     </row>
-    <row r="10" spans="1:56" ht="37.5" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="64"/>
+    <row r="10" spans="1:55" ht="37.5" customHeight="1">
+      <c r="A10" s="64"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="19">
-        <f>E10*11*60/25</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="D10" s="6"/>
+      <c r="E10" s="19">
+        <f>D10*11*60/25</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9" t="e">
+      <c r="G10" s="7"/>
+      <c r="H10" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="10">
+      <c r="I10" s="10">
         <v>337</v>
       </c>
+      <c r="J10" s="11">
+        <v>360</v>
+      </c>
       <c r="K10" s="11">
-        <v>360</v>
-      </c>
-      <c r="L10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14" t="e">
-        <f>L10/(L10-P10)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14" t="e">
+        <f>K10/(K10-O10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -2090,15 +2067,15 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="6">
+      <c r="AE10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="15" t="e">
+      <c r="AF10" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
@@ -2108,72 +2085,71 @@
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="6">
+      <c r="AQ10" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR10" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS10" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT10" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="20" t="e">
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="20" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="22"/>
-      <c r="BB10" s="23"/>
-      <c r="BC10" s="24"/>
-      <c r="BD10" s="25"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="22"/>
+      <c r="BA10" s="23"/>
+      <c r="BB10" s="24"/>
+      <c r="BC10" s="25"/>
     </row>
-    <row r="11" spans="1:56" ht="39" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="64"/>
+    <row r="11" spans="1:55" ht="39" customHeight="1">
+      <c r="A11" s="64"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="19">
-        <f>E11*11*60/15</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="D11" s="6"/>
+      <c r="E11" s="19">
+        <f>D11*11*60/15</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9" t="e">
+      <c r="G11" s="7"/>
+      <c r="H11" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="10">
+      <c r="I11" s="10">
         <v>153</v>
       </c>
+      <c r="J11" s="11">
+        <v>139</v>
+      </c>
       <c r="K11" s="11">
-        <v>139</v>
-      </c>
-      <c r="L11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="14" t="e">
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -2187,15 +2163,15 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="6">
+      <c r="AE11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="15" t="e">
+      <c r="AF11" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
@@ -2205,70 +2181,69 @@
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="6">
+      <c r="AQ11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR11" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS11" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT11" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="16" t="e">
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW11" s="83"/>
-      <c r="AX11" s="84"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="22"/>
-      <c r="BB11" s="23"/>
-      <c r="BC11" s="27"/>
-      <c r="BD11" s="25"/>
+      <c r="AV11" s="75"/>
+      <c r="AW11" s="76"/>
+      <c r="AX11" s="76"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="22"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="27"/>
+      <c r="BC11" s="25"/>
     </row>
-    <row r="12" spans="1:56" ht="39" customHeight="1">
-      <c r="A12" s="68"/>
-      <c r="B12" s="64"/>
+    <row r="12" spans="1:55" ht="39" customHeight="1">
+      <c r="A12" s="64"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
-        <f>E12*11*60/25</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <f>D12*11*60/25</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9" t="e">
+      <c r="G12" s="7"/>
+      <c r="H12" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="12">
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="14" t="e">
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -2282,15 +2257,15 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="6">
+      <c r="AE12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="15" t="e">
+      <c r="AF12" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
@@ -2300,70 +2275,69 @@
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="6">
+      <c r="AQ12" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR12" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS12" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT12" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="16" t="e">
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW12" s="83"/>
-      <c r="AX12" s="84"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="21"/>
-      <c r="BA12" s="22"/>
-      <c r="BB12" s="23"/>
-      <c r="BC12" s="27"/>
-      <c r="BD12" s="25"/>
+      <c r="AV12" s="75"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="23"/>
+      <c r="BB12" s="27"/>
+      <c r="BC12" s="25"/>
     </row>
-    <row r="13" spans="1:56" ht="39" customHeight="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="64"/>
+    <row r="13" spans="1:55" ht="39" customHeight="1">
+      <c r="A13" s="64"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
-        <f>E13*11*60/17.8</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <f>D13*11*60/17.8</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9" t="e">
+      <c r="G13" s="7"/>
+      <c r="H13" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="10">
-        <v>0</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="12">
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14" t="e">
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -2377,15 +2351,15 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="6">
+      <c r="AE13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="15" t="e">
+      <c r="AF13" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
@@ -2395,70 +2369,69 @@
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="6">
+      <c r="AQ13" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR13" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS13" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT13" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="16" t="e">
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW13" s="83"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="22"/>
-      <c r="BB13" s="23"/>
-      <c r="BC13" s="27"/>
-      <c r="BD13" s="25"/>
+      <c r="AV13" s="75"/>
+      <c r="AW13" s="76"/>
+      <c r="AX13" s="76"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="27"/>
+      <c r="BC13" s="25"/>
     </row>
-    <row r="14" spans="1:56" ht="39" customHeight="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="64"/>
+    <row r="14" spans="1:55" ht="39" customHeight="1">
+      <c r="A14" s="64"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
-        <f>E14*11*60/17.8</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <f>D14*11*60/17.8</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9" t="e">
+      <c r="G14" s="7"/>
+      <c r="H14" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="10">
+      <c r="I14" s="10">
         <v>297</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12">
+      <c r="J14" s="11"/>
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="14" t="e">
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -2472,15 +2445,15 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="6">
+      <c r="AE14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="15" t="e">
+      <c r="AF14" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
@@ -2490,70 +2463,69 @@
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="6">
+      <c r="AQ14" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR14" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS14" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT14" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="16" t="e">
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW14" s="83"/>
-      <c r="AX14" s="84"/>
-      <c r="AY14" s="84"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="22"/>
-      <c r="BB14" s="23"/>
-      <c r="BC14" s="27"/>
-      <c r="BD14" s="25"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="76"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="22"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="27"/>
+      <c r="BC14" s="25"/>
     </row>
-    <row r="15" spans="1:56" ht="39" customHeight="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="64"/>
+    <row r="15" spans="1:55" ht="39" customHeight="1">
+      <c r="A15" s="64"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="19">
-        <f>E15*11*60/21</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="D15" s="6"/>
+      <c r="E15" s="19">
+        <f>D15*11*60/21</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9" t="e">
+      <c r="G15" s="7"/>
+      <c r="H15" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="10">
+      <c r="I15" s="10">
         <v>402</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="12">
+      <c r="J15" s="29"/>
+      <c r="K15" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14" t="e">
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -2567,15 +2539,15 @@
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="6">
+      <c r="AE15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="15" t="e">
+      <c r="AF15" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
@@ -2585,72 +2557,71 @@
       <c r="AN15" s="7"/>
       <c r="AO15" s="7"/>
       <c r="AP15" s="7"/>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="6">
+      <c r="AQ15" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR15" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS15" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT15" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU15" s="7"/>
-      <c r="AV15" s="16" t="e">
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW15" s="83"/>
-      <c r="AX15" s="84"/>
-      <c r="AY15" s="84"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="22"/>
-      <c r="BB15" s="23"/>
-      <c r="BC15" s="27"/>
-      <c r="BD15" s="25"/>
+      <c r="AV15" s="75"/>
+      <c r="AW15" s="76"/>
+      <c r="AX15" s="76"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="27"/>
+      <c r="BC15" s="25"/>
     </row>
-    <row r="16" spans="1:56" ht="40.5" customHeight="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="64"/>
+    <row r="16" spans="1:55" ht="40.5" customHeight="1">
+      <c r="A16" s="64"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
-        <f>E16*11*60/5</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <f>D16*11*60/5</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9" t="e">
+      <c r="G16" s="7"/>
+      <c r="H16" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="10">
+      <c r="I16" s="10">
         <v>104</v>
       </c>
-      <c r="K16" s="29">
+      <c r="J16" s="29">
         <v>57</v>
       </c>
-      <c r="L16" s="12">
+      <c r="K16" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="14" t="e">
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -2664,15 +2635,15 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="6">
+      <c r="AE16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="15" t="e">
+      <c r="AF16" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
@@ -2682,72 +2653,71 @@
       <c r="AN16" s="7"/>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="6">
+      <c r="AQ16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR16" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS16" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT16" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU16" s="7"/>
-      <c r="AV16" s="16" t="e">
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW16" s="83"/>
-      <c r="AX16" s="84"/>
-      <c r="AY16" s="84"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="22"/>
-      <c r="BB16" s="23"/>
-      <c r="BC16" s="27"/>
-      <c r="BD16" s="25"/>
+      <c r="AV16" s="75"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="76"/>
+      <c r="AY16" s="21"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="25"/>
     </row>
-    <row r="17" spans="1:56" ht="40.5" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="64"/>
+    <row r="17" spans="1:55" ht="40.5" customHeight="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6">
-        <f>E17*11*60/25</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <f>D17*11*60/25</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9" t="e">
+      <c r="G17" s="7"/>
+      <c r="H17" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="10">
+      <c r="I17" s="10">
         <v>467</v>
       </c>
-      <c r="K17" s="11">
+      <c r="J17" s="11">
         <v>450</v>
       </c>
-      <c r="L17" s="12">
+      <c r="K17" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="14" t="e">
+      <c r="O17" s="13">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -2761,15 +2731,15 @@
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="6">
+      <c r="AE17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="15" t="e">
+      <c r="AF17" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
@@ -2779,72 +2749,71 @@
       <c r="AN17" s="7"/>
       <c r="AO17" s="7"/>
       <c r="AP17" s="7"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="6">
+      <c r="AQ17" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR17" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS17" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT17" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU17" s="7"/>
-      <c r="AV17" s="16" t="e">
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW17" s="83"/>
-      <c r="AX17" s="84"/>
-      <c r="AY17" s="84"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="22"/>
-      <c r="BB17" s="23"/>
-      <c r="BC17" s="27"/>
-      <c r="BD17" s="25"/>
+      <c r="AV17" s="75"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="27"/>
+      <c r="BC17" s="25"/>
     </row>
-    <row r="18" spans="1:56" ht="40.5" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="64"/>
+    <row r="18" spans="1:55" ht="40.5" customHeight="1">
+      <c r="A18" s="64"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
-        <f>E18*11*60/25</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <f>H18+AF18+AR18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9" t="e">
-        <f>G18/F18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <f>D18*11*60/25</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <f>G18+AE18+AQ18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="9" t="e">
+        <f>F18/E18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="10">
         <v>467</v>
       </c>
-      <c r="K18" s="11">
+      <c r="J18" s="11">
         <v>450</v>
       </c>
-      <c r="L18" s="12">
-        <f>+K18*G18/1000</f>
-        <v>0</v>
-      </c>
+      <c r="K18" s="12">
+        <f>+J18*F18/1000</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="14" t="e">
-        <f>L18/(L18-P18)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+      <c r="P18" s="14" t="e">
+        <f>K18/(K18-O18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -2858,15 +2827,15 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="6">
-        <f>SUM(R18:AE18)</f>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="15" t="e">
-        <f>AF18/G18</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AE18" s="6">
+        <f>SUM(Q18:AD18)</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="15" t="e">
+        <f>AE18/F18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
@@ -2876,70 +2845,69 @@
       <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
-      <c r="AQ18" s="7"/>
-      <c r="AR18" s="6">
-        <f>SUM(AH18:AQ18)</f>
-        <v>0</v>
+      <c r="AQ18" s="6">
+        <f>SUM(AG18:AP18)</f>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="15" t="e">
+        <f>AQ18/F18</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AS18" s="15" t="e">
-        <f>AR18/G18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT18" s="15" t="e">
-        <f>(AR18+AF18)/G18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU18" s="7"/>
-      <c r="AV18" s="16" t="e">
-        <f>AU18/G18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW18" s="83"/>
-      <c r="AX18" s="84"/>
-      <c r="AY18" s="84"/>
-      <c r="AZ18" s="21"/>
-      <c r="BA18" s="22"/>
-      <c r="BB18" s="23"/>
-      <c r="BC18" s="27"/>
-      <c r="BD18" s="25"/>
+        <f>(AQ18+AE18)/F18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="16" t="e">
+        <f>AT18/F18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="21"/>
+      <c r="AZ18" s="22"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="27"/>
+      <c r="BC18" s="25"/>
     </row>
-    <row r="19" spans="1:56" ht="44.25" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="64"/>
+    <row r="19" spans="1:55" ht="44.25" customHeight="1">
+      <c r="A19" s="64"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
-        <f>E19*11*60/15</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <f>D19*11*60/15</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="9" t="e">
+      <c r="G19" s="7"/>
+      <c r="H19" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="10">
+      <c r="I19" s="10">
         <v>209</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="12">
+      <c r="J19" s="29"/>
+      <c r="K19" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="14" t="e">
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -2953,15 +2921,15 @@
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="6">
+      <c r="AE19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="15" t="e">
+      <c r="AF19" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
@@ -2971,70 +2939,69 @@
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="6">
+      <c r="AQ19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR19" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS19" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT19" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU19" s="7"/>
-      <c r="AV19" s="16" t="e">
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW19" s="83"/>
-      <c r="AX19" s="84"/>
-      <c r="AY19" s="84"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="22"/>
-      <c r="BB19" s="23"/>
-      <c r="BC19" s="27"/>
-      <c r="BD19" s="25"/>
+      <c r="AV19" s="75"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="76"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="22"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="27"/>
+      <c r="BC19" s="25"/>
     </row>
-    <row r="20" spans="1:56" ht="39" customHeight="1">
-      <c r="A20" s="68"/>
-      <c r="B20" s="64"/>
+    <row r="20" spans="1:55" ht="39" customHeight="1">
+      <c r="A20" s="64"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="30">
-        <f>E20*11*60/25</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="D20" s="6"/>
+      <c r="E20" s="30">
+        <f>D20*11*60/25</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="9" t="e">
+      <c r="G20" s="7"/>
+      <c r="H20" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="10">
+      <c r="I20" s="10">
         <v>509</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="12">
+      <c r="J20" s="29"/>
+      <c r="K20" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="14" t="e">
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -3048,15 +3015,15 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="6">
+      <c r="AE20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="15" t="e">
+      <c r="AF20" s="15" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
@@ -3066,72 +3033,71 @@
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
-      <c r="AQ20" s="7"/>
-      <c r="AR20" s="6">
+      <c r="AQ20" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR20" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS20" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT20" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU20" s="7"/>
-      <c r="AV20" s="16" t="e">
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW20" s="83"/>
-      <c r="AX20" s="84"/>
-      <c r="AY20" s="84"/>
-      <c r="AZ20" s="21"/>
-      <c r="BA20" s="22"/>
-      <c r="BB20" s="23"/>
-      <c r="BC20" s="27"/>
-      <c r="BD20" s="25"/>
+      <c r="AV20" s="75"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="21"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="23"/>
+      <c r="BB20" s="27"/>
+      <c r="BC20" s="25"/>
     </row>
-    <row r="21" spans="1:56" s="34" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="66"/>
+    <row r="21" spans="1:55" s="34" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A21" s="88"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
-        <f>E21*11*60/22</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
+        <f>D21*11*60/22</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="32" t="e">
+      <c r="G21" s="7"/>
+      <c r="H21" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="10">
+      <c r="I21" s="10">
         <v>629</v>
       </c>
-      <c r="K21" s="29">
+      <c r="J21" s="29">
         <v>500</v>
       </c>
-      <c r="L21" s="12">
+      <c r="K21" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="14" t="e">
+      <c r="O21" s="13">
+        <v>0</v>
+      </c>
+      <c r="P21" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -3145,90 +3111,89 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="18">
+      <c r="AE21" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="33" t="e">
+      <c r="AF21" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG21" s="31"/>
       <c r="AH21" s="31"/>
       <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="31"/>
       <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="31"/>
       <c r="AO21" s="31"/>
       <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="6">
+      <c r="AQ21" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR21" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS21" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT21" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU21" s="7"/>
-      <c r="AV21" s="16" t="e">
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW21" s="83"/>
-      <c r="AX21" s="84"/>
-      <c r="AY21" s="84"/>
-      <c r="AZ21" s="21"/>
-      <c r="BA21" s="22"/>
-      <c r="BB21" s="23"/>
-      <c r="BC21" s="27"/>
-      <c r="BD21" s="25"/>
+      <c r="AV21" s="75"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="21"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="23"/>
+      <c r="BB21" s="27"/>
+      <c r="BC21" s="25"/>
     </row>
-    <row r="22" spans="1:56" ht="42" customHeight="1">
-      <c r="A22" s="68"/>
-      <c r="B22" s="64"/>
+    <row r="22" spans="1:55" ht="42" customHeight="1">
+      <c r="A22" s="64"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="18">
-        <f>E22*11*60/5</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="D22" s="35"/>
+      <c r="E22" s="18">
+        <f>D22*11*60/5</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="32" t="e">
+      <c r="G22" s="7"/>
+      <c r="H22" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="10">
+      <c r="I22" s="10">
         <v>125</v>
       </c>
-      <c r="K22" s="29">
+      <c r="J22" s="29">
         <v>97</v>
       </c>
-      <c r="L22" s="12">
+      <c r="K22" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="14" t="e">
-        <f>L22/(L22-P22)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14" t="e">
+        <f>K22/(K22-O22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -3242,15 +3207,15 @@
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="18">
+      <c r="AE22" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="33" t="e">
+      <c r="AF22" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
@@ -3260,72 +3225,71 @@
       <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="6">
+      <c r="AQ22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR22" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS22" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT22" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU22" s="7"/>
-      <c r="AV22" s="16" t="e">
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW22" s="83"/>
-      <c r="AX22" s="84"/>
-      <c r="AY22" s="84"/>
-      <c r="AZ22" s="21"/>
-      <c r="BA22" s="22"/>
-      <c r="BB22" s="23"/>
-      <c r="BC22" s="27"/>
-      <c r="BD22" s="25"/>
+      <c r="AV22" s="75"/>
+      <c r="AW22" s="76"/>
+      <c r="AX22" s="76"/>
+      <c r="AY22" s="21"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="23"/>
+      <c r="BB22" s="27"/>
+      <c r="BC22" s="25"/>
     </row>
-    <row r="23" spans="1:56" ht="42" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="64"/>
+    <row r="23" spans="1:55" ht="42" customHeight="1">
+      <c r="A23" s="64"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35">
-        <f>E23*11*60/24</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="D23" s="35"/>
+      <c r="E23" s="35">
+        <f>D23*11*60/24</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="32" t="e">
+      <c r="G23" s="7"/>
+      <c r="H23" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="10">
+      <c r="I23" s="10">
         <v>285</v>
       </c>
-      <c r="K23" s="29">
+      <c r="J23" s="29">
         <v>260</v>
       </c>
-      <c r="L23" s="12">
+      <c r="K23" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="14" t="e">
-        <f>L23/(L23-P23)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14" t="e">
+        <f>K23/(K23-O23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -3339,15 +3303,15 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="18">
+      <c r="AE23" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="33" t="e">
+      <c r="AF23" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
@@ -3357,72 +3321,71 @@
       <c r="AN23" s="7"/>
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="6">
+      <c r="AQ23" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR23" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS23" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT23" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU23" s="7"/>
-      <c r="AV23" s="16" t="e">
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW23" s="83"/>
-      <c r="AX23" s="84"/>
-      <c r="AY23" s="84"/>
-      <c r="AZ23" s="21"/>
-      <c r="BA23" s="22"/>
-      <c r="BB23" s="23"/>
-      <c r="BC23" s="27"/>
-      <c r="BD23" s="25"/>
+      <c r="AV23" s="75"/>
+      <c r="AW23" s="76"/>
+      <c r="AX23" s="76"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="23"/>
+      <c r="BB23" s="27"/>
+      <c r="BC23" s="25"/>
     </row>
-    <row r="24" spans="1:56" ht="38.25" customHeight="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="64"/>
+    <row r="24" spans="1:55" ht="38.25" customHeight="1">
+      <c r="A24" s="64"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35">
-        <f>E24*11*60/20</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="E24" s="35">
+        <f>D24*11*60/20</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="32" t="e">
+      <c r="G24" s="7"/>
+      <c r="H24" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="10">
+      <c r="I24" s="10">
         <v>423</v>
       </c>
-      <c r="K24" s="29">
+      <c r="J24" s="29">
         <v>346</v>
       </c>
-      <c r="L24" s="12">
+      <c r="K24" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="14" t="e">
+      <c r="O24" s="13">
+        <v>0</v>
+      </c>
+      <c r="P24" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -3436,15 +3399,15 @@
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="35">
+      <c r="AE24" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="33" t="e">
+      <c r="AF24" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
@@ -3454,72 +3417,71 @@
       <c r="AN24" s="7"/>
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="6">
+      <c r="AQ24" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR24" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS24" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT24" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU24" s="7"/>
-      <c r="AV24" s="16" t="e">
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW24" s="83"/>
-      <c r="AX24" s="84"/>
-      <c r="AY24" s="84"/>
-      <c r="AZ24" s="21"/>
-      <c r="BA24" s="22"/>
-      <c r="BB24" s="23"/>
-      <c r="BC24" s="27"/>
-      <c r="BD24" s="25"/>
+      <c r="AV24" s="75"/>
+      <c r="AW24" s="76"/>
+      <c r="AX24" s="76"/>
+      <c r="AY24" s="21"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="23"/>
+      <c r="BB24" s="27"/>
+      <c r="BC24" s="25"/>
     </row>
-    <row r="25" spans="1:56" ht="35.25" customHeight="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="64"/>
+    <row r="25" spans="1:55" ht="35.25" customHeight="1">
+      <c r="A25" s="64"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35">
-        <f>E25*11*60/17</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="E25" s="35">
+        <f>D25*11*60/17</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="32" t="e">
+      <c r="G25" s="7"/>
+      <c r="H25" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="10">
+      <c r="I25" s="10">
         <v>379</v>
       </c>
-      <c r="K25" s="11">
+      <c r="J25" s="11">
         <v>321</v>
       </c>
-      <c r="L25" s="12">
+      <c r="K25" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="14" t="e">
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -3533,15 +3495,15 @@
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="35">
+      <c r="AE25" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG25" s="33" t="e">
+      <c r="AF25" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
@@ -3551,72 +3513,71 @@
       <c r="AN25" s="7"/>
       <c r="AO25" s="7"/>
       <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="6">
+      <c r="AQ25" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR25" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS25" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT25" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU25" s="7"/>
-      <c r="AV25" s="16" t="e">
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW25" s="83"/>
-      <c r="AX25" s="84"/>
-      <c r="AY25" s="84"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="22"/>
-      <c r="BB25" s="23"/>
-      <c r="BC25" s="27"/>
-      <c r="BD25" s="25"/>
+      <c r="AV25" s="75"/>
+      <c r="AW25" s="76"/>
+      <c r="AX25" s="76"/>
+      <c r="AY25" s="21"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="23"/>
+      <c r="BB25" s="27"/>
+      <c r="BC25" s="25"/>
     </row>
-    <row r="26" spans="1:56" ht="35.25" customHeight="1">
-      <c r="A26" s="68"/>
-      <c r="B26" s="64"/>
+    <row r="26" spans="1:55" ht="35.25" customHeight="1">
+      <c r="A26" s="64"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="35">
-        <f>E26*11*60/24</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="D26" s="18"/>
+      <c r="E26" s="35">
+        <f>D26*11*60/24</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="32" t="e">
+      <c r="G26" s="7"/>
+      <c r="H26" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="10">
+      <c r="I26" s="10">
         <v>413</v>
       </c>
-      <c r="K26" s="29">
+      <c r="J26" s="29">
         <v>346</v>
       </c>
-      <c r="L26" s="12">
+      <c r="K26" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14" t="e">
+      <c r="O26" s="13">
+        <v>0</v>
+      </c>
+      <c r="P26" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -3630,15 +3591,15 @@
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="35">
+      <c r="AE26" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="33" t="e">
+      <c r="AF26" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
@@ -3648,72 +3609,71 @@
       <c r="AN26" s="7"/>
       <c r="AO26" s="7"/>
       <c r="AP26" s="7"/>
-      <c r="AQ26" s="7"/>
-      <c r="AR26" s="6">
+      <c r="AQ26" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR26" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS26" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT26" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="16" t="e">
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW26" s="83"/>
-      <c r="AX26" s="84"/>
-      <c r="AY26" s="84"/>
-      <c r="AZ26" s="21"/>
-      <c r="BA26" s="22"/>
-      <c r="BB26" s="23"/>
-      <c r="BC26" s="27"/>
-      <c r="BD26" s="36"/>
+      <c r="AV26" s="75"/>
+      <c r="AW26" s="76"/>
+      <c r="AX26" s="76"/>
+      <c r="AY26" s="21"/>
+      <c r="AZ26" s="22"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="27"/>
+      <c r="BC26" s="36"/>
     </row>
-    <row r="27" spans="1:56" ht="35.25" customHeight="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="64"/>
+    <row r="27" spans="1:55" ht="35.25" customHeight="1">
+      <c r="A27" s="64"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="35">
-        <f>E27*11*60/24</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="D27" s="18"/>
+      <c r="E27" s="35">
+        <f>D27*11*60/24</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="32" t="e">
+      <c r="G27" s="7"/>
+      <c r="H27" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="10">
+      <c r="I27" s="10">
         <v>421</v>
       </c>
-      <c r="K27" s="11">
+      <c r="J27" s="11">
         <v>349</v>
       </c>
-      <c r="L27" s="12">
+      <c r="K27" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="14" t="e">
+      <c r="O27" s="13">
+        <v>0</v>
+      </c>
+      <c r="P27" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -3727,15 +3687,15 @@
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="35">
+      <c r="AE27" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG27" s="33" t="e">
+      <c r="AF27" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
@@ -3745,70 +3705,69 @@
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
       <c r="AP27" s="7"/>
-      <c r="AQ27" s="7"/>
-      <c r="AR27" s="6">
+      <c r="AQ27" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR27" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS27" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT27" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU27" s="7"/>
-      <c r="AV27" s="16" t="e">
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW27" s="83"/>
-      <c r="AX27" s="84"/>
-      <c r="AY27" s="84"/>
-      <c r="AZ27" s="21"/>
-      <c r="BA27" s="22"/>
-      <c r="BB27" s="23"/>
-      <c r="BC27" s="27"/>
-      <c r="BD27" s="36"/>
+      <c r="AV27" s="75"/>
+      <c r="AW27" s="76"/>
+      <c r="AX27" s="76"/>
+      <c r="AY27" s="21"/>
+      <c r="AZ27" s="22"/>
+      <c r="BA27" s="23"/>
+      <c r="BB27" s="27"/>
+      <c r="BC27" s="36"/>
     </row>
-    <row r="28" spans="1:56" ht="39" customHeight="1">
-      <c r="A28" s="68"/>
-      <c r="B28" s="64"/>
+    <row r="28" spans="1:55" ht="39" customHeight="1">
+      <c r="A28" s="64"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18">
-        <f>E28*11*60/14</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="E28" s="18">
+        <f>D28*11*60/14</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="32" t="e">
+      <c r="G28" s="7"/>
+      <c r="H28" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="10">
+      <c r="I28" s="10">
         <v>186</v>
       </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="12">
+      <c r="J28" s="11"/>
+      <c r="K28" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="14" t="e">
+      <c r="O28" s="13">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -3822,15 +3781,15 @@
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="35">
+      <c r="AE28" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG28" s="33" t="e">
+      <c r="AF28" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
@@ -3840,72 +3799,71 @@
       <c r="AN28" s="7"/>
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
-      <c r="AQ28" s="7"/>
-      <c r="AR28" s="6">
+      <c r="AQ28" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AR28" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS28" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT28" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU28" s="7"/>
-      <c r="AV28" s="16" t="e">
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW28" s="83"/>
-      <c r="AX28" s="84"/>
-      <c r="AY28" s="84"/>
-      <c r="AZ28" s="21"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="23"/>
-      <c r="BC28" s="27"/>
-      <c r="BD28" s="36"/>
+      <c r="AV28" s="75"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="21"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="23"/>
+      <c r="BB28" s="27"/>
+      <c r="BC28" s="36"/>
     </row>
-    <row r="29" spans="1:56" ht="36" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="64"/>
+    <row r="29" spans="1:55" ht="36" customHeight="1">
+      <c r="A29" s="64"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="37">
-        <f>E29*11*60/42</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="D29" s="18"/>
+      <c r="E29" s="37">
+        <f>D29*11*60/42</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="32" t="e">
+      <c r="G29" s="7"/>
+      <c r="H29" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="10">
+      <c r="I29" s="10">
         <v>692</v>
       </c>
-      <c r="K29" s="11">
+      <c r="J29" s="11">
         <v>501</v>
       </c>
-      <c r="L29" s="12">
+      <c r="K29" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="14" t="e">
+      <c r="O29" s="13">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3919,15 +3877,15 @@
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="35">
+      <c r="AE29" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG29" s="33" t="e">
+      <c r="AF29" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG29" s="18"/>
       <c r="AH29" s="18"/>
       <c r="AI29" s="18"/>
       <c r="AJ29" s="18"/>
@@ -3937,72 +3895,71 @@
       <c r="AN29" s="18"/>
       <c r="AO29" s="18"/>
       <c r="AP29" s="18"/>
-      <c r="AQ29" s="18"/>
-      <c r="AR29" s="6">
-        <f t="shared" ref="AR29:AR35" si="10">SUM(AH29:AQ29)</f>
-        <v>0</v>
+      <c r="AQ29" s="6">
+        <f t="shared" ref="AQ29:AQ35" si="10">SUM(AG29:AP29)</f>
+        <v>0</v>
+      </c>
+      <c r="AR29" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AS29" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT29" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU29" s="7"/>
-      <c r="AV29" s="16" t="e">
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW29" s="83"/>
-      <c r="AX29" s="84"/>
-      <c r="AY29" s="84"/>
-      <c r="AZ29" s="38"/>
-      <c r="BA29" s="39">
+      <c r="AV29" s="75"/>
+      <c r="AW29" s="76"/>
+      <c r="AX29" s="76"/>
+      <c r="AY29" s="38"/>
+      <c r="AZ29" s="39">
         <v>9249</v>
       </c>
-      <c r="BB29" s="23"/>
-      <c r="BC29" s="27"/>
-      <c r="BD29" s="36"/>
+      <c r="BA29" s="23"/>
+      <c r="BB29" s="27"/>
+      <c r="BC29" s="36"/>
     </row>
-    <row r="30" spans="1:56" ht="36" customHeight="1">
-      <c r="A30" s="68"/>
-      <c r="B30" s="64"/>
+    <row r="30" spans="1:55" ht="36" customHeight="1">
+      <c r="A30" s="64"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="40">
-        <f>E30*11*60/15</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="D30" s="18"/>
+      <c r="E30" s="40">
+        <f>D30*11*60/15</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="32" t="e">
+      <c r="G30" s="7"/>
+      <c r="H30" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="10">
+      <c r="I30" s="10">
         <v>692</v>
       </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="12">
+      <c r="J30" s="11"/>
+      <c r="K30" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="14" t="e">
+      <c r="O30" s="13">
+        <v>0</v>
+      </c>
+      <c r="P30" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -4016,15 +3973,15 @@
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="35">
-        <f>SUM(R30:AE30)</f>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="33" t="e">
+      <c r="AE30" s="35">
+        <f>SUM(Q30:AD30)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="18"/>
       <c r="AJ30" s="18"/>
@@ -4034,72 +3991,71 @@
       <c r="AN30" s="18"/>
       <c r="AO30" s="18"/>
       <c r="AP30" s="18"/>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="6">
+      <c r="AQ30" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="AR30" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS30" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT30" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU30" s="7"/>
-      <c r="AV30" s="16" t="e">
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW30" s="83"/>
-      <c r="AX30" s="84"/>
-      <c r="AY30" s="84"/>
-      <c r="AZ30" s="38"/>
-      <c r="BA30" s="39">
+      <c r="AV30" s="75"/>
+      <c r="AW30" s="76"/>
+      <c r="AX30" s="76"/>
+      <c r="AY30" s="38"/>
+      <c r="AZ30" s="39">
         <v>9249</v>
       </c>
-      <c r="BB30" s="23"/>
-      <c r="BC30" s="27"/>
-      <c r="BD30" s="36"/>
+      <c r="BA30" s="23"/>
+      <c r="BB30" s="27"/>
+      <c r="BC30" s="36"/>
     </row>
-    <row r="31" spans="1:56" ht="36" customHeight="1">
-      <c r="A31" s="68"/>
-      <c r="B31" s="64"/>
+    <row r="31" spans="1:55" ht="36" customHeight="1">
+      <c r="A31" s="64"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="40">
-        <f>E31*11*60/15</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="D31" s="6"/>
+      <c r="E31" s="40">
+        <f>D31*11*60/15</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="32" t="e">
+      <c r="G31" s="7"/>
+      <c r="H31" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="10">
-        <v>0</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="12">
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="14" t="e">
+      <c r="O31" s="13">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
@@ -4113,15 +4069,15 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="35">
+      <c r="AE31" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG31" s="33" t="e">
+      <c r="AF31" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG31" s="18"/>
       <c r="AH31" s="18"/>
       <c r="AI31" s="18"/>
       <c r="AJ31" s="18"/>
@@ -4131,72 +4087,71 @@
       <c r="AN31" s="18"/>
       <c r="AO31" s="18"/>
       <c r="AP31" s="18"/>
-      <c r="AQ31" s="18"/>
-      <c r="AR31" s="6">
+      <c r="AQ31" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="AR31" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS31" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT31" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU31" s="7"/>
-      <c r="AV31" s="16" t="e">
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW31" s="83"/>
-      <c r="AX31" s="84"/>
-      <c r="AY31" s="84"/>
-      <c r="AZ31" s="38"/>
-      <c r="BA31" s="39">
+      <c r="AV31" s="75"/>
+      <c r="AW31" s="76"/>
+      <c r="AX31" s="76"/>
+      <c r="AY31" s="38"/>
+      <c r="AZ31" s="39">
         <v>9249</v>
       </c>
-      <c r="BB31" s="23"/>
-      <c r="BC31" s="27"/>
-      <c r="BD31" s="36"/>
+      <c r="BA31" s="23"/>
+      <c r="BB31" s="27"/>
+      <c r="BC31" s="36"/>
     </row>
-    <row r="32" spans="1:56" ht="36" customHeight="1">
-      <c r="A32" s="68"/>
-      <c r="B32" s="64"/>
+    <row r="32" spans="1:55" ht="36" customHeight="1">
+      <c r="A32" s="64"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="40">
-        <f>E32*11*60/15</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <f>H32+AF32+AR32</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="32" t="e">
-        <f>G32/F32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="10">
-        <v>0</v>
-      </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="12">
-        <f>+K32*G32/1000</f>
-        <v>0</v>
-      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="40">
+        <f>D32*11*60/15</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <f>G32+AE32+AQ32</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="32" t="e">
+        <f>F32/E32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12">
+        <f>+J32*F32/1000</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="14" t="e">
-        <f>L32/(L32-P32)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O32" s="13">
+        <v>0</v>
+      </c>
+      <c r="P32" s="14" t="e">
+        <f>K32/(K32-O32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
@@ -4210,15 +4165,15 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="35">
-        <f>SUM(R32:AE32)</f>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="33" t="e">
-        <f>AF32/G32</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AE32" s="35">
+        <f>SUM(Q32:AD32)</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="33" t="e">
+        <f>AE32/F32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG32" s="18"/>
       <c r="AH32" s="18"/>
       <c r="AI32" s="18"/>
       <c r="AJ32" s="18"/>
@@ -4228,72 +4183,71 @@
       <c r="AN32" s="18"/>
       <c r="AO32" s="18"/>
       <c r="AP32" s="18"/>
-      <c r="AQ32" s="18"/>
-      <c r="AR32" s="6">
+      <c r="AQ32" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="AR32" s="15" t="e">
+        <f>AQ32/F32</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS32" s="15" t="e">
-        <f>AR32/G32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT32" s="15" t="e">
-        <f>(AR32+AF32)/G32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU32" s="7"/>
-      <c r="AV32" s="16" t="e">
-        <f>AU32/G32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW32" s="83"/>
-      <c r="AX32" s="84"/>
-      <c r="AY32" s="84"/>
-      <c r="AZ32" s="38"/>
-      <c r="BA32" s="39">
+        <f>(AQ32+AE32)/F32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="16" t="e">
+        <f>AT32/F32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV32" s="75"/>
+      <c r="AW32" s="76"/>
+      <c r="AX32" s="76"/>
+      <c r="AY32" s="38"/>
+      <c r="AZ32" s="39">
         <v>9249</v>
       </c>
-      <c r="BB32" s="23"/>
-      <c r="BC32" s="27"/>
-      <c r="BD32" s="36"/>
+      <c r="BA32" s="23"/>
+      <c r="BB32" s="27"/>
+      <c r="BC32" s="36"/>
     </row>
-    <row r="33" spans="1:56" ht="38.25" customHeight="1">
-      <c r="A33" s="68"/>
-      <c r="B33" s="64"/>
+    <row r="33" spans="1:55" ht="38.25" customHeight="1">
+      <c r="A33" s="64"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="40">
-        <f>E33*11*60/15</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="D33" s="6"/>
+      <c r="E33" s="40">
+        <f>D33*11*60/15</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="32" t="e">
+      <c r="G33" s="7"/>
+      <c r="H33" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="10">
+      <c r="I33" s="10">
         <v>275</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="12">
+      <c r="J33" s="29"/>
+      <c r="K33" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="14" t="e">
+      <c r="O33" s="13">
+        <v>0</v>
+      </c>
+      <c r="P33" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -4307,15 +4261,15 @@
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="18">
+      <c r="AE33" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG33" s="33" t="e">
+      <c r="AF33" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG33" s="18"/>
       <c r="AH33" s="18"/>
       <c r="AI33" s="18"/>
       <c r="AJ33" s="18"/>
@@ -4325,72 +4279,71 @@
       <c r="AN33" s="18"/>
       <c r="AO33" s="18"/>
       <c r="AP33" s="18"/>
-      <c r="AQ33" s="18"/>
-      <c r="AR33" s="6">
+      <c r="AQ33" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="AR33" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS33" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT33" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU33" s="7"/>
-      <c r="AV33" s="16" t="e">
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW33" s="83"/>
-      <c r="AX33" s="84"/>
-      <c r="AY33" s="84"/>
-      <c r="AZ33" s="38"/>
-      <c r="BA33" s="39"/>
-      <c r="BB33" s="23"/>
-      <c r="BC33" s="27"/>
-      <c r="BD33" s="36"/>
+      <c r="AV33" s="75"/>
+      <c r="AW33" s="76"/>
+      <c r="AX33" s="76"/>
+      <c r="AY33" s="38"/>
+      <c r="AZ33" s="39"/>
+      <c r="BA33" s="23"/>
+      <c r="BB33" s="27"/>
+      <c r="BC33" s="36"/>
     </row>
-    <row r="34" spans="1:56" ht="38.25" customHeight="1">
-      <c r="A34" s="68"/>
-      <c r="B34" s="64"/>
+    <row r="34" spans="1:55" ht="38.25" customHeight="1">
+      <c r="A34" s="64"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="40">
-        <f>E34*11*60/25</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
-        <f>H34+AF34+AR34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="32" t="e">
-        <f>G34/F34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="10">
+      <c r="D34" s="6"/>
+      <c r="E34" s="40">
+        <f>D34*11*60/25</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <f>G34+AE34+AQ34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="32" t="e">
+        <f>F34/E34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="10">
         <v>508</v>
       </c>
-      <c r="K34" s="29">
+      <c r="J34" s="29">
         <v>466</v>
       </c>
-      <c r="L34" s="12">
-        <f>+K34*G34/1000</f>
-        <v>0</v>
-      </c>
+      <c r="K34" s="12">
+        <f>+J34*F34/1000</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="14" t="e">
-        <f>L34/(L34-P34)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O34" s="13">
+        <v>0</v>
+      </c>
+      <c r="P34" s="14" t="e">
+        <f>K34/(K34-O34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -4404,15 +4357,15 @@
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="18">
-        <f>SUM(R34:AE34)</f>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="33" t="e">
-        <f>AF34/G34</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AE34" s="18">
+        <f>SUM(Q34:AD34)</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="33" t="e">
+        <f>AE34/F34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="18"/>
       <c r="AJ34" s="18"/>
@@ -4422,72 +4375,71 @@
       <c r="AN34" s="18"/>
       <c r="AO34" s="18"/>
       <c r="AP34" s="18"/>
-      <c r="AQ34" s="18"/>
-      <c r="AR34" s="6">
-        <f>SUM(AH34:AQ34)</f>
-        <v>0</v>
+      <c r="AQ34" s="6">
+        <f>SUM(AG34:AP34)</f>
+        <v>0</v>
+      </c>
+      <c r="AR34" s="15" t="e">
+        <f>AQ34/F34</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AS34" s="15" t="e">
-        <f>AR34/G34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT34" s="15" t="e">
-        <f>(AR34+AF34)/G34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU34" s="7"/>
-      <c r="AV34" s="16" t="e">
-        <f>AU34/G34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW34" s="83"/>
-      <c r="AX34" s="84"/>
-      <c r="AY34" s="84"/>
-      <c r="AZ34" s="38"/>
-      <c r="BA34" s="39"/>
-      <c r="BB34" s="23"/>
-      <c r="BC34" s="27"/>
-      <c r="BD34" s="36"/>
+        <f>(AQ34+AE34)/F34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="16" t="e">
+        <f>AT34/F34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV34" s="75"/>
+      <c r="AW34" s="76"/>
+      <c r="AX34" s="76"/>
+      <c r="AY34" s="38"/>
+      <c r="AZ34" s="39"/>
+      <c r="BA34" s="23"/>
+      <c r="BB34" s="27"/>
+      <c r="BC34" s="36"/>
     </row>
-    <row r="35" spans="1:56" ht="38.25" customHeight="1">
-      <c r="A35" s="68"/>
-      <c r="B35" s="64"/>
+    <row r="35" spans="1:55" ht="38.25" customHeight="1">
+      <c r="A35" s="64"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="40">
-        <f>E35*11*60/16</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="D35" s="6"/>
+      <c r="E35" s="40">
+        <f>D35*11*60/16</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="32" t="e">
+      <c r="G35" s="7"/>
+      <c r="H35" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="10">
+      <c r="I35" s="10">
         <v>215</v>
       </c>
-      <c r="K35" s="11">
+      <c r="J35" s="11">
         <v>157</v>
       </c>
-      <c r="L35" s="12">
+      <c r="K35" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="14" t="e">
+      <c r="O35" s="13">
+        <v>0</v>
+      </c>
+      <c r="P35" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -4501,15 +4453,15 @@
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="18">
-        <f>SUM(R35:AE35)</f>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="33" t="e">
+      <c r="AE35" s="18">
+        <f>SUM(Q35:AD35)</f>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="33" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG35" s="18"/>
       <c r="AH35" s="18"/>
       <c r="AI35" s="18"/>
       <c r="AJ35" s="18"/>
@@ -4519,88 +4471,90 @@
       <c r="AN35" s="18"/>
       <c r="AO35" s="18"/>
       <c r="AP35" s="18"/>
-      <c r="AQ35" s="18"/>
-      <c r="AR35" s="6">
+      <c r="AQ35" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="AR35" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS35" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT35" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU35" s="7"/>
-      <c r="AV35" s="16" t="e">
+      <c r="AT35" s="7"/>
+      <c r="AU35" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW35" s="83"/>
-      <c r="AX35" s="84"/>
-      <c r="AY35" s="84"/>
-      <c r="AZ35" s="38"/>
-      <c r="BA35" s="39"/>
-      <c r="BB35" s="23"/>
-      <c r="BC35" s="27"/>
-      <c r="BD35" s="36"/>
+      <c r="AV35" s="75"/>
+      <c r="AW35" s="76"/>
+      <c r="AX35" s="76"/>
+      <c r="AY35" s="38"/>
+      <c r="AZ35" s="39"/>
+      <c r="BA35" s="23"/>
+      <c r="BB35" s="27"/>
+      <c r="BC35" s="36"/>
     </row>
-    <row r="36" spans="1:56" ht="38.25" customHeight="1">
-      <c r="A36" s="68"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="6" t="s">
+    <row r="36" spans="1:55" ht="38.25" customHeight="1">
+      <c r="A36" s="64"/>
+      <c r="B36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="6">
+      <c r="C36" s="63"/>
+      <c r="D36" s="6">
+        <f>SUM(D4:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="19">
         <f>SUM(E4:E35)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="19">
-        <f>SUM(F4:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
-        <f>H36+AF36+AR36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="18">
-        <f>SUM(H4:H35)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="9" t="e">
+      <c r="F36" s="7">
+        <f>G36+AE36+AQ36</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="18">
+        <f>SUM(G4:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="41">
+      <c r="I36" s="41">
+        <f>SUM(I4:I35)</f>
+        <v>8711</v>
+      </c>
+      <c r="J36" s="18">
         <f>SUM(J4:J35)</f>
-        <v>8711</v>
+        <v>5350</v>
       </c>
       <c r="K36" s="18">
         <f>SUM(K4:K35)</f>
-        <v>5350</v>
+        <v>0</v>
       </c>
       <c r="L36" s="18">
         <f>SUM(L4:L35)</f>
         <v>0</v>
       </c>
-      <c r="M36" s="18">
-        <f>SUM(M4:M35)</f>
-        <v>0</v>
-      </c>
+      <c r="M36" s="18"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18">
-        <f>SUM(P4:P35)</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="14" t="e">
-        <f>L36/(L36-P36)</f>
-        <v>#DIV/0!</v>
+      <c r="O36" s="18">
+        <f>SUM(O4:O35)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="14" t="e">
+        <f>K36/(K36-O36)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q36" s="6">
+        <f t="shared" ref="Q36:AE36" si="11">SUM(Q4:Q35)</f>
+        <v>0</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" ref="R36:AF36" si="11">SUM(R4:R35)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S36" s="6">
@@ -4655,16 +4609,16 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF36" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="42" t="e">
+      <c r="AF36" s="42" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AG36" s="6">
+        <f t="shared" ref="AG36:AQ36" si="12">SUM(AG4:AG35)</f>
+        <v>0</v>
+      </c>
       <c r="AH36" s="6">
-        <f t="shared" ref="AH36:AR36" si="12">SUM(AH4:AH35)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI36" s="6">
@@ -4676,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="6">
-        <f t="shared" si="12"/>
+        <f>SUM(AK4:AK35)</f>
         <v>0</v>
       </c>
       <c r="AL36" s="6">
@@ -4688,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="6">
-        <f>SUM(AN4:AN35)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO36" s="6">
@@ -4703,91 +4657,88 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AR36" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AS36" s="43" t="e">
+      <c r="AR36" s="43" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT36" s="15" t="e">
+      <c r="AS36" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU36" s="26">
-        <f>+SUM(AU7:AU35)</f>
-        <v>0</v>
-      </c>
-      <c r="AV36" s="44" t="e">
+      <c r="AT36" s="26">
+        <f>+SUM(AT7:AT35)</f>
+        <v>0</v>
+      </c>
+      <c r="AU36" s="44" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW36" s="72" t="s">
+      <c r="AV36" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AX36" s="73"/>
-      <c r="AY36" s="73"/>
-      <c r="AZ36" s="38"/>
-      <c r="BA36" s="39"/>
-      <c r="BB36" s="18">
-        <f>SUM(BB4:BB35)</f>
-        <v>0</v>
-      </c>
-      <c r="BC36" s="20" t="e">
-        <f>BB36/G36</f>
+      <c r="AW36" s="66"/>
+      <c r="AX36" s="66"/>
+      <c r="AY36" s="38"/>
+      <c r="AZ36" s="39"/>
+      <c r="BA36" s="18">
+        <f>SUM(BA4:BA35)</f>
+        <v>0</v>
+      </c>
+      <c r="BB36" s="20" t="e">
+        <f>BA36/F36</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:56" ht="19.5" customHeight="1"/>
-    <row r="38" spans="1:56" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:56" ht="19.5" customHeight="1">
-      <c r="G39" s="45"/>
+    <row r="37" spans="1:55" ht="19.5" customHeight="1"/>
+    <row r="38" spans="1:55" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:55" ht="19.5" customHeight="1">
+      <c r="F39" s="45"/>
     </row>
-    <row r="40" spans="1:56" ht="19.5" customHeight="1">
-      <c r="G40" s="46"/>
+    <row r="40" spans="1:55" ht="19.5" customHeight="1">
+      <c r="F40" s="46"/>
     </row>
-    <row r="41" spans="1:56" ht="19.5" customHeight="1">
-      <c r="G41" s="45"/>
+    <row r="41" spans="1:55" ht="19.5" customHeight="1">
+      <c r="F41" s="45"/>
     </row>
-    <row r="42" spans="1:56" ht="19.5" customHeight="1">
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="49"/>
+    <row r="42" spans="1:55" ht="19.5" customHeight="1">
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
+      <c r="AT42" s="47"/>
       <c r="AU42" s="47"/>
-      <c r="AV42" s="47"/>
+      <c r="BA42" s="47"/>
       <c r="BB42" s="47"/>
-      <c r="BC42" s="47"/>
     </row>
-    <row r="43" spans="1:56" ht="19.5" customHeight="1">
+    <row r="43" spans="1:55" ht="19.5" customHeight="1">
+      <c r="B43" s="45"/>
       <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="51"/>
-      <c r="AP43" s="52"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="51"/>
+      <c r="AO43" s="52"/>
+      <c r="AT43" s="51"/>
       <c r="AU43" s="51"/>
-      <c r="AV43" s="51"/>
+      <c r="BA43" s="51"/>
       <c r="BB43" s="51"/>
-      <c r="BC43" s="51"/>
     </row>
-    <row r="44" spans="1:56" ht="19.5" customHeight="1">
+    <row r="44" spans="1:55" ht="19.5" customHeight="1">
+      <c r="B44" s="46"/>
       <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="55"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
+      <c r="AT44" s="55"/>
       <c r="AU44" s="55"/>
-      <c r="AV44" s="55"/>
+      <c r="BA44" s="55"/>
       <c r="BB44" s="55"/>
-      <c r="BC44" s="55"/>
     </row>
-    <row r="45" spans="1:56">
+    <row r="45" spans="1:55">
+      <c r="B45" s="56"/>
       <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="58"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="45"/>
       <c r="I45" s="45"/>
       <c r="J45" s="45"/>
       <c r="K45" s="45"/>
@@ -4796,18 +4747,18 @@
       <c r="N45" s="45"/>
       <c r="O45" s="45"/>
       <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
+      <c r="AT45" s="58"/>
       <c r="AU45" s="58"/>
-      <c r="AV45" s="58"/>
+      <c r="BA45" s="58"/>
       <c r="BB45" s="58"/>
-      <c r="BC45" s="58"/>
     </row>
-    <row r="46" spans="1:56">
+    <row r="46" spans="1:55">
+      <c r="B46" s="46"/>
       <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="45"/>
       <c r="I46" s="45"/>
       <c r="J46" s="45"/>
       <c r="K46" s="45"/>
@@ -4816,16 +4767,16 @@
       <c r="N46" s="45"/>
       <c r="O46" s="45"/>
       <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
+      <c r="AT46" s="47"/>
       <c r="AU46" s="47"/>
-      <c r="AV46" s="47"/>
+      <c r="BA46" s="47"/>
       <c r="BB46" s="47"/>
-      <c r="BC46" s="47"/>
     </row>
-    <row r="47" spans="1:56">
+    <row r="47" spans="1:55">
+      <c r="E47" s="48"/>
       <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="46"/>
       <c r="I47" s="46"/>
       <c r="J47" s="46"/>
       <c r="K47" s="46"/>
@@ -4834,67 +4785,65 @@
       <c r="N47" s="46"/>
       <c r="O47" s="46"/>
       <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
+      <c r="AT47" s="47"/>
       <c r="AU47" s="47"/>
-      <c r="AV47" s="47"/>
+      <c r="BA47" s="47"/>
       <c r="BB47" s="47"/>
-      <c r="BC47" s="47"/>
     </row>
-    <row r="48" spans="1:56">
+    <row r="48" spans="1:55">
+      <c r="B48" s="59"/>
       <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
+      <c r="AT48" s="48"/>
       <c r="AU48" s="48"/>
-      <c r="AV48" s="48"/>
+      <c r="BA48" s="48"/>
       <c r="BB48" s="48"/>
-      <c r="BC48" s="48"/>
     </row>
-    <row r="49" spans="3:55">
+    <row r="49" spans="2:54">
+      <c r="E49" s="39"/>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
+      <c r="AT49" s="39"/>
       <c r="AU49" s="39"/>
-      <c r="AV49" s="39"/>
+      <c r="BA49" s="39"/>
       <c r="BB49" s="39"/>
-      <c r="BC49" s="39"/>
     </row>
-    <row r="50" spans="3:55">
+    <row r="50" spans="2:54">
+      <c r="B50" s="46"/>
       <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="45"/>
     </row>
-    <row r="53" spans="3:55">
+    <row r="53" spans="2:54">
+      <c r="B53" s="60"/>
       <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C1:AY1"/>
+  <mergeCells count="23">
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="AV4:AX35"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="B1:AX1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="R2:AE2"/>
+    <mergeCell ref="Q2:AD2"/>
+    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AQ2"/>
+    <mergeCell ref="AG2:AP2"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AV36:AX36"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AV2:AX3"/>
+    <mergeCell ref="BA2:BA3"/>
     <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="BB2:BB3"/>
     <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="AW4:AY35"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AW36:AY36"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="49" orientation="landscape" r:id="rId1"/>
